--- a/the_rust_programming_language.xlsx
+++ b/the_rust_programming_language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eladio/src/the_rust_programming_language/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8696EA6B-D498-CD40-9698-B8CC6245165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0E4BA6-0091-4040-B0F3-E655197A5225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2CA55F7D-A1DB-3845-8932-F3DB4961BC60}"/>
+    <workbookView xWindow="12980" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{2CA55F7D-A1DB-3845-8932-F3DB4961BC60}"/>
   </bookViews>
   <sheets>
     <sheet name="09_error_handling" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>chapter 9</t>
   </si>
@@ -506,13 +506,113 @@
   </si>
   <si>
     <t>&lt;br/&gt;When some assumption, guarantee, contract, or invariant has been broken, such as when invalid values, contracdictory values, or missing values are passed to your code.</t>
+  </si>
+  <si>
+    <t>What is the purpose of Generics?</t>
+  </si>
+  <si>
+    <t>Generics allow us to replace specific types with a placeholder that represents multiple types to remove code duplication.</t>
+  </si>
+  <si>
+    <t>What's the definition of generics?</t>
+  </si>
+  <si>
+    <t>abstract stand-ins for concrete types or other properties</t>
+  </si>
+  <si>
+    <t>What are Type Parameters?</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;Allows parameterize of types in a function
+&lt;br/&gt;by convension, type parameters names in Rust are short, ofter just a letter</t>
+  </si>
+  <si>
+    <t>What do you have to do to use type parameters in a function?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br/&gt;declare the type parameter name before using it
+&lt;br/&gt;place type name declarations insdie angle brackets,&lt;&gt; between the name of the function and the parameter list. </t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-25 at 3.49.23 PM.png</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;yes
+&lt;br/&gt;the syntax for using generics in struct definitions is similar to that used in function definitions.</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-25 at 4.09.20 PM.png</t>
+  </si>
+  <si>
+    <t>can we define generic structs?</t>
+  </si>
+  <si>
+    <t>can we define generic enums?</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;yes
+&lt;br/&gt;when you recognize situations in your code with multiple struct or enum definitions that differ only in the types of the values they hold, you can avoid duplication by using generic types instead.</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-25 at 4.13.52 PM.png</t>
+  </si>
+  <si>
+    <t>can we define generics in method definitions?</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;yes
+&lt;br/&gt;we have to declare T just after impl so we can use T to specify that we're implementing methods on the type.</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-25 at 4.24.17 PM.png</t>
+  </si>
+  <si>
+    <t>&lt;img src='Screenshot 2024-08-25 at 4.28.58 PM.png'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='Screenshot 2024-08-25 at 4.30.39 PM.png'/&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This program </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>does not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> compile.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;img src='Screenshot 2024-08-25 at 4.32.02 PM.png'/&gt;</t>
+  </si>
+  <si>
+    <t>This program does not compile.</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-25 at 4.35.00 PM.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -528,6 +628,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -892,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC05372F-318D-6C4C-9753-74E084A2643B}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,6 +1074,10 @@
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" ref="A5:C40" si="0">IF(ISBLANK(D5),"",CONCATENATE("&lt;img src='",D5,"'/&gt;"))</f>
+        <v/>
+      </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,6 +1089,10 @@
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,6 +1104,10 @@
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1120,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" ref="C8:C32" si="0">IF(ISBLANK($D8),"",CONCATENATE("&lt;img src='", $D8, ".png'/&gt;"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E8" s="1" t="s">
@@ -1015,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IF(ISBLANK($D9),"",CONCATENATE("&lt;img src='", $D9, "'/&gt;"))</f>
+        <f t="shared" si="0"/>
         <v>&lt;img src='Screenshot 2024-08-23 at 11.32.03 AM.png'/&gt;</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1220,62 +1340,177 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>&lt;img src='Screenshot 2024-08-25 at 3.49.23 PM.png'/&gt;</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>&lt;img src='Screenshot 2024-08-25 at 4.09.20 PM.png'/&gt;</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>&lt;img src='Screenshot 2024-08-25 at 4.13.52 PM.png'/&gt;</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>&lt;img src='Screenshot 2024-08-25 at 4.24.17 PM.png'/&gt;</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="str">
+        <v>&lt;img src='Screenshot 2024-08-25 at 4.35.00 PM.png'/&gt;</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>

--- a/the_rust_programming_language.xlsx
+++ b/the_rust_programming_language.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eladio/src/the_rust_programming_language/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0E4BA6-0091-4040-B0F3-E655197A5225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D011B-3FA2-9C43-8054-40DAAD7E9607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{2CA55F7D-A1DB-3845-8932-F3DB4961BC60}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{2CA55F7D-A1DB-3845-8932-F3DB4961BC60}"/>
   </bookViews>
   <sheets>
     <sheet name="09_error_handling" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>chapter 9</t>
   </si>
@@ -606,6 +607,75 @@
   </si>
   <si>
     <t>Screenshot 2024-08-25 at 4.35.00 PM.png</t>
+  </si>
+  <si>
+    <t>What is a trait?</t>
+  </si>
+  <si>
+    <t>Defines functionality a particular type has and can share with other types.</t>
+  </si>
+  <si>
+    <t>How do you declare a trait?</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;Use the trait keyword and then the trait's name.  We've also declared that the trait as pub so that crates depending on this crate can make use of this trait too.  Inside the curly brackets, we declare the method signaurts that describe the behaviors of the types that implement this trait.  After the method signature, instead of providing an implementation within curlyh brackets, we use a semicolon.
+&lt;br/&gt;&lt;img src='Screenshot 2024-08-25 at 8.10.04 PM.png'/&gt;</t>
+  </si>
+  <si>
+    <t>How do you implement a trait?</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;&lt;img src='Screenshot 2024-08-25 at 8.13.01 PM.png'/&gt;
+&lt;br/&gt;after impl, we put the trait name we want to implement, then use the for keyword, and then specify the name of the type we want to implemnt the trait for.  Instead of adding a semilcolon after each signature, we use curly brackets and fill in the method body with the specific behavior that we want the methods of the trait to have for the particular type.</t>
+  </si>
+  <si>
+    <t>How do you use the trait?</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;user must bring the traint into scope as well as the types.
+&lt;br/&gt;&lt;img src='Screenshot 2024-08-26 at 3.56.40 AM.png'/&gt;</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-26 at 4.10.08 AM.png</t>
+  </si>
+  <si>
+    <t>&lt;img src='Screenshot 2024-08-26 at 4.10.08 AM.png'/&gt;</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-26 at 4.10.29 AM.png</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-26 at 4.10.34 AM.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br/&gt;&lt;img src='Screenshot 2024-08-26 at 4.10.29 AM.png'/&gt;
+&lt;br/&gt;&lt;img src='Screenshot 2024-08-26 at 4.10.34 AM.png'/&gt;
+</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-26 at 4.17.35 AM.png</t>
+  </si>
+  <si>
+    <t>&lt;img src='Screenshot 2024-08-26 at 4.17.35 AM.png'/&gt;</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-26 at 4.17.39 AM.png</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-26 at 4.17.43 AM.png</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;&lt;img src='Screenshot 2024-08-26 at 4.17.39 AM.png'/&gt;
+&lt;br/&gt;&lt;img src='Screenshot 2024-08-26 at 4.17.43 AM.png'/&gt;</t>
+  </si>
+  <si>
+    <t>How do you use traits as parameters to functions?</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-26 at 4.21.27 AM.png</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;&lt;img src='Screenshot 2024-08-26 at 4.21.27 AM.png'/&gt;</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC05372F-318D-6C4C-9753-74E084A2643B}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1145,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="A5:C40" si="0">IF(ISBLANK(D5),"",CONCATENATE("&lt;img src='",D5,"'/&gt;"))</f>
+        <f t="shared" ref="C5:C40" si="0">IF(ISBLANK(D5),"",CONCATENATE("&lt;img src='",D5,"'/&gt;"))</f>
         <v/>
       </c>
       <c r="E5" s="1" t="s">
@@ -1467,49 +1537,87 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1520,4 +1628,309 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B003D683-20EE-644F-978B-28D739447DAF}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.83203125" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>IF(ISBLANK(A1),"",CONCATENATE("&lt;img src='",A1,"'/&gt;"))</f>
+        <v>&lt;img src='Screenshot 2024-08-26 at 4.10.08 AM.png'/&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f t="shared" ref="B2:B42" si="0">IF(ISBLANK(A2),"",CONCATENATE("&lt;img src='",A2,"'/&gt;"))</f>
+        <v>&lt;img src='Screenshot 2024-08-26 at 4.10.29 AM.png'/&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img src='Screenshot 2024-08-26 at 4.10.34 AM.png'/&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img src='Screenshot 2024-08-26 at 4.17.35 AM.png'/&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img src='Screenshot 2024-08-26 at 4.17.39 AM.png'/&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img src='Screenshot 2024-08-26 at 4.17.43 AM.png'/&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img src='Screenshot 2024-08-26 at 4.21.27 AM.png'/&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="str">
+        <f t="shared" ref="B1:B44" si="1">IF(ISBLANK(C43),"",CONCATENATE("&lt;img src='",C43,"'/&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>